--- a/dat_disc.xlsx
+++ b/dat_disc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgi\MATLAB Drive\FE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgi\Documents\GitHub\FE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2A329C1-3F47-4747-9578-7BE887382038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFB0FF8-1C70-4F85-9133-4BC36FA7541D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{289E5986-C4F2-48B4-A9AC-056E893B7ABE}"/>
   </bookViews>
@@ -33,6 +33,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>Dates</t>
+  </si>
+  <si>
+    <t>Discounts</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,500 +393,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C471F6FD-604E-4AAF-AB82-AE5DB42FABED}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>738919</v>
-      </c>
-      <c r="B1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>738920</v>
+        <v>738919</v>
       </c>
       <c r="B2">
-        <v>0.99994711390819802</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>738926</v>
+        <v>738920</v>
       </c>
       <c r="B3">
-        <v>0.99963166349954702</v>
+        <v>0.99994711390819802</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>738947</v>
+        <v>738926</v>
       </c>
       <c r="B4">
-        <v>0.99830963993300703</v>
+        <v>0.99963166349954702</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>739008</v>
+        <v>738947</v>
       </c>
       <c r="B5">
-        <v>0.99382810660727805</v>
+        <v>0.99830963993300703</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>739052</v>
+        <v>739008</v>
       </c>
       <c r="B6">
-        <v>0.98995137473916195</v>
+        <v>0.99382810660727805</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>739150</v>
+        <v>739052</v>
       </c>
       <c r="B7">
-        <v>0.98085880281514504</v>
+        <v>0.98995137473916195</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>739240</v>
+        <v>739150</v>
       </c>
       <c r="B8">
-        <v>0.97236210755255903</v>
+        <v>0.98085880281514504</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>739331</v>
+        <v>739240</v>
       </c>
       <c r="B9">
-        <v>0.96407036596263995</v>
+        <v>0.97236210755255903</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>739423</v>
+        <v>739284</v>
       </c>
       <c r="B10">
-        <v>0.95614735712640697</v>
+        <v>0.96407036596263995</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>739514</v>
+        <v>739331</v>
       </c>
       <c r="B11">
-        <v>0.94884964695072505</v>
+        <v>0.95614735712640697</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>739604</v>
+        <v>739423</v>
       </c>
       <c r="B12">
-        <v>0.94207648852953296</v>
+        <v>0.94884964695072505</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>739651</v>
+        <v>739514</v>
       </c>
       <c r="B13">
-        <v>0.93889065962301299</v>
+        <v>0.94207648852953296</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>740015</v>
+        <v>739604</v>
       </c>
       <c r="B14">
-        <v>0.91463539184786802</v>
+        <v>0.93889065962301299</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>740380</v>
+        <v>739651</v>
       </c>
       <c r="B15">
-        <v>0.89163513039379905</v>
+        <v>0.91463539184786802</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>740745</v>
+        <v>740015</v>
       </c>
       <c r="B16">
-        <v>0.86878329268854804</v>
+        <v>0.89163513039379905</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>741111</v>
+        <v>740380</v>
       </c>
       <c r="B17">
-        <v>0.84627384166578901</v>
+        <v>0.86878329268854804</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>741478</v>
+        <v>740745</v>
       </c>
       <c r="B18">
-        <v>0.82372261975281502</v>
+        <v>0.84627384166578901</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>741842</v>
+        <v>741111</v>
       </c>
       <c r="B19">
-        <v>0.80116471280777402</v>
+        <v>0.82372261975281502</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>742206</v>
+        <v>741478</v>
       </c>
       <c r="B20">
-        <v>0.77831374943676801</v>
+        <v>0.80116471280777402</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>742572</v>
+        <v>741842</v>
       </c>
       <c r="B21">
-        <v>0.75521979854703003</v>
+        <v>0.77831374943676801</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>742937</v>
+        <v>742206</v>
       </c>
       <c r="B22">
-        <v>0.73259891059016902</v>
+        <v>0.75521979854703003</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>743302</v>
+        <v>742572</v>
       </c>
       <c r="B23">
-        <v>0.710727557531457</v>
+        <v>0.73259891059016902</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>743669</v>
+        <v>742937</v>
       </c>
       <c r="B24">
-        <v>0.68974438835428697</v>
+        <v>0.710727557531457</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>744033</v>
+        <v>743302</v>
       </c>
       <c r="B25">
-        <v>0.67021298128193096</v>
+        <v>0.68974438835428697</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>744398</v>
+        <v>743669</v>
       </c>
       <c r="B26">
-        <v>0.65202643657759796</v>
+        <v>0.67021298128193096</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>744763</v>
+        <v>744033</v>
       </c>
       <c r="B27">
-        <v>0.63547446126455798</v>
+        <v>0.65202643657759796</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>745128</v>
+        <v>744398</v>
       </c>
       <c r="B28">
-        <v>0.62050060076882496</v>
+        <v>0.63547446126455798</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>745496</v>
+        <v>744763</v>
       </c>
       <c r="B29">
-        <v>0.60689141723887996</v>
+        <v>0.62050060076882496</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>745860</v>
+        <v>745128</v>
       </c>
       <c r="B30">
-        <v>0.59461357142683602</v>
+        <v>0.60689141723887996</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>746224</v>
+        <v>745496</v>
       </c>
       <c r="B31">
-        <v>0.583330593879135</v>
+        <v>0.59461357142683602</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>746589</v>
+        <v>745860</v>
       </c>
       <c r="B32">
-        <v>0.57278984467742999</v>
+        <v>0.583330593879135</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>746955</v>
+        <v>746224</v>
       </c>
       <c r="B33">
-        <v>0.56293885117960296</v>
+        <v>0.57278984467742999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>747320</v>
+        <v>746589</v>
       </c>
       <c r="B34">
-        <v>0.55368064730473698</v>
+        <v>0.56293885117960296</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>747687</v>
+        <v>746955</v>
       </c>
       <c r="B35">
-        <v>0.54491207102193195</v>
+        <v>0.55368064730473698</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>748051</v>
+        <v>747320</v>
       </c>
       <c r="B36">
-        <v>0.53667787875118</v>
+        <v>0.54491207102193195</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>748416</v>
+        <v>747687</v>
       </c>
       <c r="B37">
-        <v>0.52884870666521</v>
+        <v>0.53667787875118</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>748781</v>
+        <v>748051</v>
       </c>
       <c r="B38">
-        <v>0.52132335864790202</v>
+        <v>0.52884870666521</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>749146</v>
+        <v>748416</v>
       </c>
       <c r="B39">
-        <v>0.51409588981571597</v>
+        <v>0.52132335864790202</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>749511</v>
+        <v>748781</v>
       </c>
       <c r="B40">
-        <v>0.50712261151387805</v>
+        <v>0.51409588981571597</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>749878</v>
+        <v>749146</v>
       </c>
       <c r="B41">
-        <v>0.50035631781853995</v>
+        <v>0.50712261151387805</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>750242</v>
+        <v>749511</v>
       </c>
       <c r="B42">
-        <v>0.49378459472765202</v>
+        <v>0.50035631781853995</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>750607</v>
+        <v>749878</v>
       </c>
       <c r="B43">
-        <v>0.48735133900476202</v>
+        <v>0.49378459472765202</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>750972</v>
+        <v>750242</v>
       </c>
       <c r="B44">
-        <v>0.48106671319250699</v>
+        <v>0.48735133900476202</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>751338</v>
+        <v>750607</v>
       </c>
       <c r="B45">
-        <v>0.47493802005870001</v>
+        <v>0.48106671319250699</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>751705</v>
+        <v>750972</v>
       </c>
       <c r="B46">
-        <v>0.468900946064506</v>
+        <v>0.47493802005870001</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>752069</v>
+        <v>751338</v>
       </c>
       <c r="B47">
-        <v>0.46305035864660199</v>
+        <v>0.468900946064506</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>752433</v>
+        <v>751705</v>
       </c>
       <c r="B48">
-        <v>0.45733565004006599</v>
+        <v>0.46305035864660199</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>752799</v>
+        <v>752069</v>
       </c>
       <c r="B49">
-        <v>0.45175570801541198</v>
+        <v>0.45733565004006599</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>753164</v>
+        <v>752433</v>
       </c>
       <c r="B50">
-        <v>0.44630481838230801</v>
+        <v>0.45175570801541198</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>753529</v>
+        <v>752799</v>
       </c>
       <c r="B51">
-        <v>0.44100107095646701</v>
+        <v>0.44630481838230801</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>753896</v>
+        <v>753164</v>
       </c>
       <c r="B52">
-        <v>0.43582298174031397</v>
+        <v>0.44100107095646701</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>754260</v>
+        <v>753529</v>
       </c>
       <c r="B53">
-        <v>0.43087537300092199</v>
+        <v>0.43582298174031397</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>754625</v>
+        <v>753896</v>
       </c>
       <c r="B54">
-        <v>0.42605890837320398</v>
+        <v>0.43087537300092199</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>754990</v>
+        <v>754260</v>
       </c>
       <c r="B55">
-        <v>0.42142508644980098</v>
+        <v>0.42605890837320398</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>755355</v>
+        <v>754625</v>
       </c>
       <c r="B56">
-        <v>0.41698613427866799</v>
+        <v>0.42142508644980098</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>755723</v>
+        <v>754990</v>
       </c>
       <c r="B57">
-        <v>0.41274486477792499</v>
+        <v>0.41698613427866799</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>756087</v>
+        <v>755355</v>
       </c>
       <c r="B58">
-        <v>0.40874929628899898</v>
+        <v>0.41274486477792499</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>756451</v>
+        <v>755723</v>
       </c>
       <c r="B59">
-        <v>0.40499124158250099</v>
+        <v>0.40874929628899898</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>756816</v>
+        <v>756087</v>
       </c>
       <c r="B60">
-        <v>0.40147794375166801</v>
+        <v>0.40499124158250099</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
+        <v>756451</v>
+      </c>
+      <c r="B61">
+        <v>0.40147794375166801</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>756816</v>
+      </c>
+      <c r="B62">
+        <v>0.39825179127954702</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>757182</v>
       </c>
-      <c r="B61">
-        <v>0.39825179127954702</v>
+      <c r="B63">
+        <v>0.96837709021113705</v>
       </c>
     </row>
   </sheetData>

--- a/dat_disc.xlsx
+++ b/dat_disc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgi\Documents\GitHub\FE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F897C9-047E-4ED7-9628-6C18EC3E0387}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A9BE9C-4180-4CCF-989A-EDBA4363FF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" xr2:uid="{289E5986-C4F2-48B4-A9AC-056E893B7ABE}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{289E5986-C4F2-48B4-A9AC-056E893B7ABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Dates</t>
   </si>
   <si>
     <t>Discounts</t>
+  </si>
+  <si>
+    <t>SurvProbs</t>
+  </si>
+  <si>
+    <t>YearsFrac</t>
   </si>
 </sst>
 </file>
@@ -77,9 +83,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -394,57 +399,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C471F6FD-604E-4AAF-AB82-AE5DB42FABED}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>738919</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>739284</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3">
+        <v>1.00555555555556</v>
+      </c>
+      <c r="C3">
         <v>0.96407036596263995</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="D3">
+        <v>0.99502487562189101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>739651</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4">
+        <v>2.0083333333333302</v>
+      </c>
+      <c r="C4">
         <v>0.91463539184786802</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="D4">
+        <v>0.98870743397040906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>740015</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5">
+        <v>3.00555555555556</v>
+      </c>
+      <c r="C5">
         <v>0.89163513039379905</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="D5">
+        <v>0.98162445386339803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>740380</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6">
+        <v>4.00555555555556</v>
+      </c>
+      <c r="C6">
         <v>0.86878329268854804</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="D6">
+        <v>0.97424102583977501</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dat_disc.xlsx
+++ b/dat_disc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\virgi\Documents\GitHub\FE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Documents\GitHub\FE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A9BE9C-4180-4CCF-989A-EDBA4363FF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FBA58E-3AF6-4239-A7F5-FDD1AFB6DBFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{289E5986-C4F2-48B4-A9AC-056E893B7ABE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{289E5986-C4F2-48B4-A9AC-056E893B7ABE}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -401,13 +401,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C471F6FD-604E-4AAF-AB82-AE5DB42FABED}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>738919</v>
       </c>
@@ -435,7 +435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>739284</v>
       </c>
@@ -449,7 +449,7 @@
         <v>0.99502487562189101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>739651</v>
       </c>
@@ -463,7 +463,7 @@
         <v>0.98870743397040906</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>740015</v>
       </c>
@@ -477,7 +477,7 @@
         <v>0.98162445386339803</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>740380</v>
       </c>
